--- a/data-raw/phen/rd_20200611-phen.xlsx
+++ b/data-raw/phen/rd_20200611-phen.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>funleaves_nu</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -569,7 +572,9 @@
       <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>

--- a/data-raw/phen/rd_20200611-phen.xlsx
+++ b/data-raw/phen/rd_20200611-phen.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnichols\Documents\_github_pkgs\maRsden\data-raw\phen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gina Laptippytop\Documents\_git_pkgs\maRsden\data-raw\phen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E5FEE1-B773-4F13-B766-884D772040E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="destructive-sampling" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -86,12 +82,15 @@
   </si>
   <si>
     <t>funleaves_nu</t>
+  </si>
+  <si>
+    <t>june 11 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -471,39 +470,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -511,15 +510,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>43993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -527,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -547,7 +546,7 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -583,7 +582,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>43993</v>
       </c>
@@ -615,7 +614,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
@@ -643,7 +642,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
@@ -671,7 +670,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>34</v>
@@ -701,7 +700,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
@@ -729,7 +728,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -757,7 +756,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11">
         <v>17</v>
@@ -787,7 +786,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
@@ -815,7 +814,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
@@ -843,7 +842,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11">
         <v>39</v>
@@ -873,7 +872,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -901,7 +900,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
@@ -929,7 +928,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11">
         <v>41</v>
@@ -959,7 +958,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="11" t="s">
@@ -986,7 +985,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="11" t="s">
@@ -1013,7 +1012,7 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14">
         <v>22</v>
@@ -1042,7 +1041,7 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="11" t="s">
@@ -1069,7 +1068,7 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="11" t="s">
@@ -1096,7 +1095,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14">
         <v>44</v>
@@ -1125,7 +1124,7 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="11" t="s">
@@ -1152,7 +1151,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="11" t="s">
@@ -1179,7 +1178,7 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5">
         <v>24</v>
@@ -1202,7 +1201,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="11" t="s">
@@ -1223,7 +1222,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="11" t="s">
@@ -1244,7 +1243,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1254,7 +1253,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1264,7 +1263,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1274,7 +1273,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1284,7 +1283,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1294,7 +1293,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1304,7 +1303,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1314,7 +1313,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1324,7 +1323,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1334,7 +1333,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1344,7 +1343,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1354,7 +1353,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1364,7 +1363,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1374,7 +1373,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1384,7 +1383,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1394,7 +1393,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1404,7 +1403,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
